--- a/DataFileSamples/Isotope/Rb-Sr.xlsx
+++ b/DataFileSamples/Isotope/Rb-Sr.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="4160" windowWidth="28100" windowHeight="17440"/>
+    <workbookView xWindow="-21600" yWindow="2360" windowWidth="21600" windowHeight="13920" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="34">
   <si>
     <t>NJ9-3</t>
   </si>
@@ -127,6 +129,18 @@
   </si>
   <si>
     <t>Lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yerr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,651 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="12" max="12" width="26.1640625" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2.069</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.71697200000000005</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.71276399999999995</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5.8620000000000001</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.724464</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.71254399999999996</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.625</v>
-      </c>
-      <c r="K4" s="3">
-        <v>7.2809999999999997</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.72756600000000005</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.71277000000000001</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4.3070000000000004</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.719333</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.71254899999999999</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.15720000000000001</v>
-      </c>
-      <c r="J6" s="3">
-        <v>6.4359999999999999</v>
-      </c>
-      <c r="K6" s="3">
-        <v>7.2300000000000003E-2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.71282299999999998</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.71263399999999999</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.72057800000000005</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.71264899999999998</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2.2309999999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.71296199999999998</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.71264099999999997</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4.9820000000000002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>11.29</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.73559799999999997</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.71267599999999998</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.367</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2.9420000000000002</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7.3840000000000003</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.72739100000000001</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.71268399999999998</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.891</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.8610000000000002</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.71846200000000005</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.71238100000000004</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2.9540000000000002</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.72160899999999994</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.712646</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4.8070000000000004</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.536</v>
-      </c>
-      <c r="K13" s="3">
-        <v>9.2309999999999999</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.73147499999999999</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.712673</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.952</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7.1479999999999997</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.714279</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.71271099999999998</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1.42E-11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O14"/>
+      <selection activeCell="L8" sqref="K1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1277,7 +650,7 @@
         <v>0.71697200000000005</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N2" s="3">
         <v>0.71276399999999995</v>
@@ -1324,7 +697,7 @@
         <v>0.724464</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N3" s="3">
         <v>0.71254399999999996</v>
@@ -1371,7 +744,7 @@
         <v>0.72756600000000005</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N4" s="3">
         <v>0.71277000000000001</v>
@@ -1418,7 +791,7 @@
         <v>0.719333</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N5" s="3">
         <v>0.71254899999999999</v>
@@ -1447,28 +820,28 @@
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3">
-        <v>0.15720000000000001</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>6.4359999999999999</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="K6" s="3">
-        <v>7.2300000000000003E-2</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="L6" s="3">
-        <v>0.71282299999999998</v>
+        <v>0.72057800000000005</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N6" s="3">
-        <v>0.71263399999999999</v>
+        <v>0.71264899999999998</v>
       </c>
       <c r="O6" s="4">
         <v>1.42E-11</v>
@@ -1494,28 +867,28 @@
         <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="3">
-        <v>2.5209999999999999</v>
+        <v>4.9820000000000002</v>
       </c>
       <c r="J7" s="3">
-        <v>1.9019999999999999</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="K7" s="3">
-        <v>3.9079999999999999</v>
+        <v>11.29</v>
       </c>
       <c r="L7" s="3">
-        <v>0.72057800000000005</v>
+        <v>0.73559799999999997</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N7" s="3">
-        <v>0.71264899999999998</v>
+        <v>0.71267599999999998</v>
       </c>
       <c r="O7" s="4">
         <v>1.42E-11</v>
@@ -1541,28 +914,28 @@
         <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
-        <v>0.10340000000000001</v>
+        <v>1.952</v>
       </c>
       <c r="J8" s="3">
-        <v>2.2309999999999999</v>
+        <v>7.1479999999999997</v>
       </c>
       <c r="K8" s="3">
-        <v>0.13669999999999999</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="L8" s="3">
-        <v>0.71296199999999998</v>
+        <v>0.714279</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N8" s="3">
-        <v>0.71264099999999997</v>
+        <v>0.71271099999999998</v>
       </c>
       <c r="O8" s="4">
         <v>1.42E-11</v>
@@ -1588,28 +961,28 @@
         <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
-        <v>4.9820000000000002</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="J9" s="3">
-        <v>1.3009999999999999</v>
+        <v>6.4359999999999999</v>
       </c>
       <c r="K9" s="3">
-        <v>11.29</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.73559799999999997</v>
+        <v>0.71282299999999998</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N9" s="3">
-        <v>0.71267599999999998</v>
+        <v>0.71263399999999999</v>
       </c>
       <c r="O9" s="4">
         <v>1.42E-11</v>
@@ -1635,28 +1008,28 @@
         <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="3">
-        <v>7.367</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="J10" s="3">
-        <v>2.9420000000000002</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="K10" s="3">
-        <v>7.3840000000000003</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="L10" s="3">
-        <v>0.72739100000000001</v>
+        <v>0.71296199999999998</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N10" s="3">
-        <v>0.71268399999999998</v>
+        <v>0.71264099999999997</v>
       </c>
       <c r="O10" s="4">
         <v>1.42E-11</v>
@@ -1682,28 +1055,28 @@
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="3">
-        <v>3.891</v>
+        <v>7.367</v>
       </c>
       <c r="J11" s="3">
-        <v>4.1059999999999999</v>
+        <v>2.9420000000000002</v>
       </c>
       <c r="K11" s="3">
-        <v>2.8610000000000002</v>
+        <v>7.3840000000000003</v>
       </c>
       <c r="L11" s="3">
-        <v>0.71846200000000005</v>
+        <v>0.72739100000000001</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N11" s="3">
-        <v>0.71238100000000004</v>
+        <v>0.71268399999999998</v>
       </c>
       <c r="O11" s="4">
         <v>1.42E-11</v>
@@ -1729,28 +1102,28 @@
         <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="3">
-        <v>2.9540000000000002</v>
+        <v>3.891</v>
       </c>
       <c r="J12" s="3">
-        <v>1.9830000000000001</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="K12" s="3">
-        <v>4.3959999999999999</v>
+        <v>2.8610000000000002</v>
       </c>
       <c r="L12" s="3">
-        <v>0.72160899999999994</v>
+        <v>0.71846200000000005</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N12" s="3">
-        <v>0.712646</v>
+        <v>0.71238100000000004</v>
       </c>
       <c r="O12" s="4">
         <v>1.42E-11</v>
@@ -1776,28 +1149,28 @@
         <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3">
-        <v>4.8070000000000004</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="J13" s="3">
-        <v>1.536</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="K13" s="3">
-        <v>9.2309999999999999</v>
+        <v>4.3959999999999999</v>
       </c>
       <c r="L13" s="3">
-        <v>0.73147499999999999</v>
+        <v>0.72160899999999994</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N13" s="3">
-        <v>0.712673</v>
+        <v>0.712646</v>
       </c>
       <c r="O13" s="4">
         <v>1.42E-11</v>
@@ -1823,28 +1196,28 @@
         <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
-        <v>1.952</v>
+        <v>4.8070000000000004</v>
       </c>
       <c r="J14" s="3">
-        <v>7.1479999999999997</v>
+        <v>1.536</v>
       </c>
       <c r="K14" s="3">
-        <v>0.80559999999999998</v>
+        <v>9.2309999999999999</v>
       </c>
       <c r="L14" s="3">
-        <v>0.714279</v>
+        <v>0.73147499999999999</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="N14" s="3">
-        <v>0.71271099999999998</v>
+        <v>0.712673</v>
       </c>
       <c r="O14" s="4">
         <v>1.42E-11</v>
@@ -1869,6 +1242,754 @@
       <c r="R15" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:O15">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="12" width="26.1640625" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.069</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.71697200000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.71276399999999995</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.724464</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.71254399999999996</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7.2809999999999997</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.72756600000000005</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.71277000000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.719333</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.71254899999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6.4359999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.71282299999999998</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.71263399999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.72057800000000005</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.71264899999999998</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.71296199999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.71264099999999997</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.9820000000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>11.29</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.73559799999999997</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.71267599999999998</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.367</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7.3840000000000003</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.72739100000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.71268399999999998</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.891</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.71846200000000005</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.71238100000000004</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.72160899999999994</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.712646</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.536</v>
+      </c>
+      <c r="K13" s="3">
+        <v>9.2309999999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.73147499999999999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.712673</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.952</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7.1479999999999997</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.714279</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.71271099999999998</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.42E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>2.069</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.71697200000000005</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.724464</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>7.2809999999999997</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.72756600000000005</v>
+      </c>
+      <c r="C4">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.719333</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.72057800000000005</v>
+      </c>
+      <c r="C6">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>11.29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.73559799999999997</v>
+      </c>
+      <c r="C7">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.714279</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
